--- a/Project Outputs/Assembly/BOM-Grouped_RAMBo_1.4a.xlsx
+++ b/Project Outputs/Assembly/BOM-Grouped_RAMBo_1.4a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="463">
   <si>
     <t>Designator</t>
   </si>
@@ -88,156 +88,162 @@
     <t>C2</t>
   </si>
   <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>C0805C106K8PACTU</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>CAPACITOR, American symbol</t>
+  </si>
+  <si>
+    <t>C3, C5, C6, C7, C8, C9, C19, C20, C21, C26, C52, C53, C56, C59, C64, C78, C86, C87, C88, C89, C90, C91, C92, C93, C94, C95, C96, C97</t>
+  </si>
+  <si>
+    <t>Digi-Key, [NoParam], Digikey, Digikey, Digikey, Digikey, [NoParam], [NoParam], [NoParam], Digikey, Digikey, Digi-Key, Digi-Key, Digi-Key, Digi-Key, Digikey, [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], Digikey, Digikey, Digikey, Digikey, Digi-Key, Digikey</t>
+  </si>
+  <si>
+    <t>490-3261-2-ND</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM155R71C104KA88D</t>
+  </si>
+  <si>
+    <t>100nF, [NoParam], 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, [NoParam], [NoParam], [NoParam], 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 100nF, 100nF, 100nF, 100nF, 0.1uF 16V X7R 0402, [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 100nF, 0.1uF 16V X7R 0402</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>CAP CER 0402 100nF 16V 10% X7R, CAPACITOR, European symbol, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R</t>
+  </si>
+  <si>
+    <t>0.10µF ±10% 16V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>+/- 10%, [NoParam], 10%, 10%, 10%, 10%, [NoParam], [NoParam], [NoParam], 10%, 10%, +/- 10%, +/- 10%, +/- 10%, +/- 10%, 10%, [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], 10%, 10%, 10%, 10%, +/- 10%, 10%</t>
+  </si>
+  <si>
+    <t>100nF 16V X7R 0402, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 100nF 16V X7R 0402, 100nF 16V X7R 0402, 100nF 16V X7R 0402, 100nF 16V X7R 0402, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 100nF 16V X7R 0402, 16V</t>
+  </si>
+  <si>
+    <t>C4, C10, C11, C14, C15, C17, C18, C23, C24, C27, C28, C29, C32, C33, C34, C37, C38, C39, C42, C43, C44, C47, C48, C49, C55, C60, C62, C71, C72, C73, C74, C75</t>
+  </si>
+  <si>
+    <t>Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, [NoValue], [NoValue], Kemet, Kemet, Kemet, Kemet, Kemet</t>
+  </si>
+  <si>
+    <t>C0603C104K5RACTU</t>
+  </si>
+  <si>
+    <t>CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAP CER 0603 100nF 50V 10% X7R, CAP CER 0603 100nF 50V 10% X7R, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol</t>
+  </si>
+  <si>
+    <t>0.1uF 50V capacitor</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603ZRY5V6BB105 </t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>1uF 10V capacitor</t>
+  </si>
+  <si>
+    <t>C22, C50, C61, C67, C68, C69, C70, C77, C79, C80, C81, C82, C83, C84, C85</t>
+  </si>
+  <si>
+    <t>GRM1555C1H101JA01D</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>Capacitor Non Polarized</t>
+  </si>
+  <si>
+    <t>C0402TBD</t>
+  </si>
+  <si>
+    <t>100pF ±5% 50V Ceramic Capacitor C0G, NP0 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>C25, C30, C45</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>490-9964-2-ND</t>
+  </si>
+  <si>
+    <t>GRM319R6YA106KA12D</t>
+  </si>
+  <si>
+    <t>10uF 35V X5R 1206</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 35V 10% X5R 1206</t>
+  </si>
+  <si>
+    <t>10µF ±10% 35V Ceramic Capacitor X5R 1206 (3216 Metric)</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>35V</t>
+  </si>
+  <si>
+    <t>C31, C36, C41, C46, C51</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R7BB224 </t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
+    <t>0.22uF 100V capacitor X or 15%</t>
+  </si>
+  <si>
+    <t>C35, C54</t>
+  </si>
+  <si>
     <t>C1608X7R1E103K080AA</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>CAPACITOR, American symbol</t>
+    <t>10nF</t>
   </si>
   <si>
     <t>10nF (0.01uF) 25V capacitor</t>
   </si>
   <si>
-    <t>C3, C5, C6, C7, C8, C9, C19, C20, C21, C26, C52, C53, C56, C59, C64, C78, C86, C87, C88, C89, C90, C91, C92, C93, C94, C95, C96, C97</t>
-  </si>
-  <si>
-    <t>Digi-Key, [NoParam], Digikey, Digikey, Digikey, Digikey, [NoParam], [NoParam], [NoParam], Digikey, Digikey, Digi-Key, Digi-Key, Digi-Key, Digi-Key, Digikey, [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], Digikey, Digikey, Digikey, Digikey, Digi-Key, Digikey</t>
-  </si>
-  <si>
-    <t>490-3261-2-ND</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GRM155R71C104KA88D</t>
-  </si>
-  <si>
-    <t>100nF, [NoParam], 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, [NoParam], [NoParam], [NoParam], 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 100nF, 100nF, 100nF, 100nF, 0.1uF 16V X7R 0402, [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 0.1uF 16V X7R 0402, 100nF, 0.1uF 16V X7R 0402</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>CAP CER 0402 100nF 16V 10% X7R, CAPACITOR, European symbol, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R, CAP CER 0402 100nF 16V 10% X7R</t>
-  </si>
-  <si>
-    <t>0.10µF ±10% 16V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
-  </si>
-  <si>
-    <t>+/- 10%, [NoParam], 10%, 10%, 10%, 10%, [NoParam], [NoParam], [NoParam], 10%, 10%, +/- 10%, +/- 10%, +/- 10%, +/- 10%, 10%, [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], [NoParam], 10%, 10%, 10%, 10%, +/- 10%, 10%</t>
-  </si>
-  <si>
-    <t>100nF 16V X7R 0402, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 100nF 16V X7R 0402, 100nF 16V X7R 0402, 100nF 16V X7R 0402, 100nF 16V X7R 0402, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 16V, 100nF 16V X7R 0402, 16V</t>
-  </si>
-  <si>
-    <t>C4, C10, C11, C14, C15, C17, C18, C23, C24, C27, C28, C29, C32, C33, C34, C37, C38, C39, C42, C43, C44, C47, C48, C49, C55, C60, C62, C71, C72, C73, C74, C75</t>
-  </si>
-  <si>
-    <t>Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, Kemet, [NoValue], [NoValue], Kemet, Kemet, Kemet, Kemet, Kemet</t>
-  </si>
-  <si>
-    <t>C0603C104K5RACTU</t>
-  </si>
-  <si>
-    <t>CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAP CER 0603 100nF 50V 10% X7R, CAP CER 0603 100nF 50V 10% X7R, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol, CAPACITOR, European symbol</t>
-  </si>
-  <si>
-    <t>0.1uF 50V capacitor</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>yageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603ZRY5V6BB105 </t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>1uF 10V capacitor</t>
-  </si>
-  <si>
-    <t>C22, C50, C61, C67, C68, C69, C70, C77, C79, C80, C81, C82, C83, C84, C85</t>
-  </si>
-  <si>
-    <t>GRM1555C1H101JA01D</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>Capacitor Non Polarized</t>
-  </si>
-  <si>
-    <t>C0402TBD</t>
-  </si>
-  <si>
-    <t>100pF ±5% 50V Ceramic Capacitor C0G, NP0 0402 (1005 Metric)</t>
-  </si>
-  <si>
-    <t>C25, C30, C45</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
-    <t>490-9964-2-ND</t>
-  </si>
-  <si>
-    <t>GRM319R6YA106KA12D</t>
-  </si>
-  <si>
-    <t>10uF 35V X5R 1206</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>CAP CER 10UF 35V 10% X5R 1206</t>
-  </si>
-  <si>
-    <t>10µF ±10% 35V Ceramic Capacitor X5R 1206 (3216 Metric)</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>35V</t>
-  </si>
-  <si>
-    <t>C31, C36, C41, C46, C51</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R7BB224 </t>
-  </si>
-  <si>
-    <t>0.22uF</t>
-  </si>
-  <si>
-    <t>0.22uF 100V capacitor X or 15%</t>
-  </si>
-  <si>
-    <t>C35, C54</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>C40</t>
   </si>
   <si>
@@ -568,817 +574,826 @@
     <t>L2</t>
   </si>
   <si>
+    <t>CBC2012T100M</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>INDUCTOR, American symbol</t>
+  </si>
+  <si>
+    <t>INDUCTOR 10UH 20% 0805 SMD</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>SRN8040-330M</t>
+  </si>
+  <si>
+    <t>FIXED IND 33UH 1.7A 145 MOHM SMD</t>
+  </si>
+  <si>
+    <t>33uH</t>
+  </si>
+  <si>
+    <t>INDP8080X40L</t>
+  </si>
+  <si>
+    <t>Semi-Shielded Wirewound Inductor 145 mOhm Max Nonstandard</t>
+  </si>
+  <si>
+    <t>+/- 20%</t>
+  </si>
+  <si>
+    <t>LED1, LED9, LED10</t>
+  </si>
+  <si>
+    <t>Dialight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5988140107F</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>CHIP-LED0805</t>
+  </si>
+  <si>
+    <t>LED   OSRAM: - CHIPLED LG R971, LG N971, LY N971, LG Q971, LY Q971, LO R971, LY R971 LH N974, LH R974 LS Q976, LO Q976, LY Q976 LO Q996 - Hyper CHIPLED LW Q18S LB Q993, LB Q99A, LB R99A - SideLED LS A670, LO A670, LY A670, LG A670, LP A670 LB A673, LV A673, LT A673, LW A673 LH A674 LY A675 LS A676, LA A676, LO A676, LY A676, LW A676 LS A679, LY A679, LG A679 -  Hyper Micro SIDELED® LS Y876, LA Y876, LO Y876, LY Y876 LT Y87S - SmartLED LW L88C, LW L88S LB L89C, LB L89S, LG L890 LS L89K, LO L89K, LY L89K LS L896, LA L896, LO L896, LY L896 - TOPLED LS T670, LO T670, LY T670, LG T670, LP T670 LSG T670, LSP T670, LSY T670, LOP T670, LYG T670 LG T671, LOG T671, LSG T671 LB T673, LV T673, LT T673, LW T673 LH T674 LS T676, LA T676, LO T676, LY T676, LB T676, LH T676, LSB T676, LW T676 LB T67C, LV T67C, LT T67C, LS T67K, LO T67K, LY T67K, LW E67C LS E67B, LA E67B, LO E67B, LY E67B, LB E67C, LV E67C, LT E67C LW T67C LS T679, LY T679, LG T679 LS T770, LO T770, LY T770, LG T770, LP T770 LB T773, LV T773, LT T773, LW T773 LH T774 LS E675, LA E675, LY E675, LS T675 LS T776, LA T776, LO T776, LY T776, LB T776 LHGB T686 LT T68C, LB T68C - Hyper Mini TOPLED® LB M676 - Mini TOPLED Santana® LG M470 LS M47K, LO M47K, LY M47K    Source: http://www.osram.convergy.de   LUXEON: - LUMILED® LXK2-PW12-R00, LXK2-PW12-S00, LXK2-PW14-U00, LXK2-PW14-V00 LXK2-PM12-R00, LXK2-PM12-S00, LXK2-PM14-U00 LXK2-PE12-Q00, LXK2-PE12-R00, LXK2-PE12-S00, LXK2-PE14-T00, LXK2-PE14-U00 LXK2-PB12-K00, LXK2-PB12-L00, LXK2-PB12-M00, LXK2-PB14-N00, LXK2-PB14-P00, LXK2-PB14-Q00 LXK2-PR12-L00, LXK2-PR12-M00, LXK2-PR14-Q00, LXK2-PR14-R00 LXK2-PD12-Q00, LXK2-PD12-R00, LXK2-PD12-S00 LXK2-PH12-R00, LXK2-PH12-S00 LXK2-PL12-P00, LXK2-PL12-Q00, LXK2-PL12-R00    Source: www.luxeon.com   KINGBRIGHT:   KA-3528ASYC Source: www.kingbright.com</t>
+  </si>
+  <si>
+    <t>YELLOW LED</t>
+  </si>
+  <si>
+    <t>LED2, LED3, LED4, LED5, LED6, LED8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5988110107F </t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598-8170-107F </t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>GREEN LED</t>
+  </si>
+  <si>
+    <t>LOGO1</t>
+  </si>
+  <si>
+    <t>OSHW_LOGO_8MILX0150-NT</t>
+  </si>
+  <si>
+    <t>OSHW_8X150_NOTEXT</t>
+  </si>
+  <si>
+    <t>P1, P2</t>
+  </si>
+  <si>
+    <t>ED1543-ND</t>
+  </si>
+  <si>
+    <t>On Shore</t>
+  </si>
+  <si>
+    <t>302-S101</t>
+  </si>
+  <si>
+    <t>HDR10</t>
+  </si>
+  <si>
+    <t>HDR2X5 IDC</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 10POS GOLD</t>
+  </si>
+  <si>
+    <t>10 Positions Header Connector 0.100" (2.54mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q5</t>
+  </si>
+  <si>
+    <t>1727-1052-2-ND</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>PSMN1R8-40YLC,115</t>
+  </si>
+  <si>
+    <t>PSMN1R8-40YLC</t>
+  </si>
+  <si>
+    <t>SOT669</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 40V 100A LFPAK</t>
+  </si>
+  <si>
+    <t>N-Channel 40V 100A (Tc) 272W (Tc) Surface Mount LFPAK56, Power-SO8</t>
+  </si>
+  <si>
+    <t>N-FET</t>
+  </si>
+  <si>
+    <t>40V 100A 1.8mOhm</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>NCV8402ADDR2GOSTR-ND</t>
+  </si>
+  <si>
+    <t>On Semi</t>
+  </si>
+  <si>
+    <t>NCV8402ADDR2G</t>
+  </si>
+  <si>
+    <t>NCV8402</t>
+  </si>
+  <si>
+    <t>NCV8402AD</t>
+  </si>
+  <si>
+    <t>NCV8402AD-SOIC8</t>
+  </si>
+  <si>
+    <t>IC DVR LOW SIDE 8-SOIC</t>
+  </si>
+  <si>
+    <t>42Vmaz 2A 0.165-Ohm</t>
+  </si>
+  <si>
+    <t>R1, R2, R64, R74, R75, R76</t>
+  </si>
+  <si>
+    <t>RC0402FR-0722RL</t>
+  </si>
+  <si>
+    <t>22R</t>
+  </si>
+  <si>
+    <t>RESISTOR, American symbol</t>
+  </si>
+  <si>
+    <t>22R (22ohm) 62.5mW 1% resistor</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW0603470KFKEA </t>
+  </si>
+  <si>
+    <t>470K</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>SMD 1/10watt 470Kohms 1% Thick Film Resistors</t>
+  </si>
+  <si>
+    <t>R4, R7, R8, R10, R14, R15, R19, R20, R23, R24</t>
+  </si>
+  <si>
+    <t>CRM1206-FX-R100ELF</t>
+  </si>
+  <si>
+    <t>0r1</t>
+  </si>
+  <si>
+    <t>R1206</t>
+  </si>
+  <si>
+    <t>0r1 (0.1ohm) .5mW 1% resistor</t>
+  </si>
+  <si>
+    <t>R5, R6, R9, R16, R21, R25</t>
+  </si>
+  <si>
+    <t>YAG1249TR-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KP</t>
+  </si>
+  <si>
+    <t>10k 1% 0402</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>10k Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>R11, R13</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>R12, R17, R18, R22, R26</t>
+  </si>
+  <si>
+    <t>CR0603J000ELF</t>
+  </si>
+  <si>
+    <t>0r</t>
+  </si>
+  <si>
+    <t>0r (zero ohm) 100mW 5% resistor</t>
+  </si>
+  <si>
+    <t>R27, R28, R32, R36, R38, R39, R77, R78</t>
+  </si>
+  <si>
+    <t>311-2.37KLRTR-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-072K37L</t>
+  </si>
+  <si>
+    <t>2.37k</t>
+  </si>
+  <si>
+    <t>2k37</t>
+  </si>
+  <si>
+    <t>RES SMD 2.37K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>2.37k Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>+/- 1%</t>
+  </si>
+  <si>
+    <t>2.37k 1% 0402</t>
+  </si>
+  <si>
+    <t>R29, R65, R66, R67, R68</t>
+  </si>
+  <si>
+    <t>CRCW060356R0JNEA</t>
+  </si>
+  <si>
+    <t>56r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTOR, THICK FILM, 56OHM, 100mW, 5% </t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>panasonic</t>
+  </si>
+  <si>
+    <t>erj3geyj332v</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTOR, THICK FILM, 3.3KOHM, 100mW, 5% </t>
+  </si>
+  <si>
+    <t>R31, R37, R73, R79</t>
+  </si>
+  <si>
+    <t>311-4.7KLRTR-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-074K7L</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>4.7k Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>4.7k 1% 0402</t>
+  </si>
+  <si>
+    <t>R33, R34, R35, RN5</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R0603, R0603, R0603, CAY16</t>
+  </si>
+  <si>
+    <t>RESISTOR, American symbol, RESISTOR, American symbol, RESISTOR, American symbol, Array Chip Resistor   Source: RS Component / Phycomp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTOR, THICK FILM, 1KOHM, 100mW, 1% </t>
+  </si>
+  <si>
+    <t>R40, R41, R50, R55, R58, R69</t>
+  </si>
+  <si>
+    <t>RC0603JR-071K8L</t>
+  </si>
+  <si>
+    <t>1.8K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor, Thick Film, 1.8K Ohm, 50V, 5±%, 100ppm, 0603 Case Size </t>
+  </si>
+  <si>
+    <t>R42, R48, R51, R53, R56, R70</t>
+  </si>
+  <si>
+    <t>311-100LRTR-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
+    <t>100R 1% 0402</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>100 Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>1/16W</t>
+  </si>
+  <si>
+    <t>R43, R49, R52, R54, R57, R59, R60, R61, R62, R63, R71</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>100Kohm 100mW 1% resistor</t>
+  </si>
+  <si>
+    <t>R44, R45, R46, R47</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>10Kohm 100mW 1% resistor</t>
+  </si>
+  <si>
+    <t>R72</t>
+  </si>
+  <si>
+    <t>ERJ2GEJ105X</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>RES 1M OHM 1/10W 5% 0402 SMD</t>
+  </si>
+  <si>
+    <t>RV1, RV2, RV3, RV4, RV5, RV6, RV7, RV8, RV9, RV10, RV11, RV12, RV13, RV14, RV15, RV16, RV17, RV18, RV19, RV20, RV21, RV22, RV23, RV24, RV25, RV26, RV27, RV28, RV29, RV30, RV31, RV32, RV33, RV34</t>
+  </si>
+  <si>
+    <t>311-1516-2-ND</t>
+  </si>
+  <si>
+    <t>VRS0402SR55R101N</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>Multi-Layer Varistor</t>
+  </si>
+  <si>
+    <t>VARISTOR 12V 10A 0402</t>
+  </si>
+  <si>
+    <t>5.5Vdc 12Vvar 60pF</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>1571610-2</t>
+  </si>
+  <si>
+    <t>31-XX</t>
+  </si>
+  <si>
+    <t>B3F-31XX</t>
+  </si>
+  <si>
+    <t>OMRON SWITCHNow with beefier pads!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITCH, TACTILE, SPST-NO, 50mA, THD </t>
+  </si>
+  <si>
+    <t>TP0, TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19</t>
+  </si>
+  <si>
+    <t>PTR1B1,27TH</t>
+  </si>
+  <si>
+    <t>B1,27TH</t>
+  </si>
+  <si>
+    <t>TEST PIN</t>
+  </si>
+  <si>
+    <t>TP20, TP21, TP22, TP23</t>
+  </si>
+  <si>
+    <t>PTR1B1,27</t>
+  </si>
+  <si>
+    <t>B1,27</t>
+  </si>
+  <si>
+    <t>TP24</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>1X01</t>
+  </si>
+  <si>
+    <t>Pin header 1x1 for 0.1" spacing   With round pins</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>ATMEGA32U2MU</t>
+  </si>
+  <si>
+    <t>ATMEGA32U2-MUR</t>
+  </si>
+  <si>
+    <t>QFN32TROUND</t>
+  </si>
+  <si>
+    <t>ATMEGA32U2-MUR (IC)</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>ATMEGA2560-16AURTR-ND</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>ATMEGA2560-16AUR</t>
+  </si>
+  <si>
+    <t>ATMEGA2560</t>
+  </si>
+  <si>
+    <t>Atmega2560</t>
+  </si>
+  <si>
+    <t>TSQFP50P1600X1600X120-100L</t>
+  </si>
+  <si>
+    <t>AVR AVR® ATmega Microcontroller IC 8-Bit 16MHz 256KB (128K x 16) FLASH 100-TQFP (14x14)</t>
+  </si>
+  <si>
+    <t>5V 256KB 8KB 16MHz</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>LM22675</t>
+  </si>
+  <si>
+    <t>SOIC127P600X170-9N</t>
+  </si>
+  <si>
+    <t>IC REG BUCK 5V 1A 8SOPWRPAD</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>AD5206BRUZ10-RL7</t>
+  </si>
+  <si>
+    <t>AD5206</t>
+  </si>
+  <si>
+    <t>TSSOP24</t>
+  </si>
+  <si>
+    <t>AD5206 (IC)</t>
+  </si>
+  <si>
+    <t>U5, U6, U7, U8, U9</t>
+  </si>
+  <si>
+    <t>Allegro</t>
+  </si>
+  <si>
+    <t>A4982SETTR-T</t>
+  </si>
+  <si>
+    <t>A4982</t>
+  </si>
+  <si>
+    <t>QFN50P500X500X100_HS-33L</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>ADUM7441ARQZ-RL7</t>
+  </si>
+  <si>
+    <t>ADUM7441</t>
+  </si>
+  <si>
+    <t>QSOP16</t>
+  </si>
+  <si>
+    <t>X1, X3, X5, X9, X27, X28, X29, X30</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>70543-0001</t>
+  </si>
+  <si>
+    <t>C-GRID-02-70543</t>
+  </si>
+  <si>
+    <t>70543-02</t>
+  </si>
+  <si>
+    <t>CONNECTOR   wire to board 2.54 mm (0.100") pitch header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIRE-BOARD CONNECTOR HEADER 2POS, 2.54MM </t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>61729-0010BLF</t>
+  </si>
+  <si>
+    <t>USB B-TH</t>
+  </si>
+  <si>
+    <t>PN61729</t>
+  </si>
+  <si>
+    <t>BERG USB connector</t>
+  </si>
+  <si>
+    <t>USB B-TH connector</t>
+  </si>
+  <si>
+    <t>X4, X6, X7, X8, X10, X14, X15</t>
+  </si>
+  <si>
+    <t>70543-0038</t>
+  </si>
+  <si>
+    <t>C-GRID-04-70543</t>
+  </si>
+  <si>
+    <t>4POL254, 4POL254, 4POL254, 4POL254, 70543-04, 4POL254, 4POL254</t>
+  </si>
+  <si>
+    <t>PHOENIX CONNECTOR, PHOENIX CONNECTOR, PHOENIX CONNECTOR, PHOENIX CONNECTOR, CONNECTOR   wire to board 2.54 mm (0.100") pitch header, PHOENIX CONNECTOR, PHOENIX CONNECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIRE-BOARD CONNECTOR HEADER 4POS, 2.54MM </t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>395311010</t>
+  </si>
+  <si>
+    <t>MSTBV10</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>CONN HEADER 10POS 5.08MM STR TIN</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>32u2 EXT</t>
+  </si>
+  <si>
+    <t>2X8</t>
+  </si>
+  <si>
+    <t>X17, X18</t>
+  </si>
+  <si>
+    <t>2213S-06G</t>
+  </si>
+  <si>
+    <t>3x2M</t>
+  </si>
+  <si>
+    <t>2X03</t>
+  </si>
+  <si>
+    <t>PIN HEADER</t>
+  </si>
+  <si>
+    <t>2x3 header</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>2211S-05G</t>
+  </si>
+  <si>
+    <t>MX1</t>
+  </si>
+  <si>
+    <t>1X05</t>
+  </si>
+  <si>
+    <t>Header 5Standard 5-pin 0.1" header. Use with straight break away headers (SKU : PRT-00116), right angle break away headers (PRT-00553), swiss pins (PRT-00743), machine pins (PRT-00117), and female headers (PRT-00115). Molex polarized connector foot print use with SKU : PRT-08230 with associated crimp pins and housings.</t>
+  </si>
+  <si>
+    <t>1x5</t>
+  </si>
+  <si>
+    <t>X21, X22, X23, X24, X25, X26</t>
+  </si>
+  <si>
+    <t>70543-0002</t>
+  </si>
+  <si>
+    <t>C-GRID-03-70543</t>
+  </si>
+  <si>
+    <t>70543-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIRE-BOARD CONNECTOR HEADER 3POS, 2.54MM </t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>MX2</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>MX3</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>39532-1006</t>
+  </si>
+  <si>
+    <t>MSTBA6</t>
+  </si>
+  <si>
+    <t>6 pin fixed terminal block</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>2211S-06G</t>
+  </si>
+  <si>
+    <t>PWM_EXT</t>
+  </si>
+  <si>
+    <t>1X06</t>
+  </si>
+  <si>
+    <t>Header 6Standard 6-pin 0.1" header. Use with straight break away headers (SKU : PRT-00116), right angle break away headers (PRT-00553), swiss pins (PRT-00743), machine pins (PRT-00117), and female headers (PRT-00115). Molex polarized connector foot print use with SKU : PRT-08094 with associated crimp pins and housings. NOTES ON THE VARIANTS LOCK and LOCK_LONGPADS... This footprint was designed to help hold the alignment of a through-hole component (i.e.  6-pin header) while soldering it into place. You may notice that each hole has been shifted either up or down by 0.005 of an inch from it's more standard position (which is a perfectly straight line). This slight alteration caused the pins (the squares in the middle) to touch the edges of the holes.  Because they are alternating, it causes a "brace" to hold the component in place.  0.005 has proven to be the perfect amount of "off-center" position when using our standard breakaway headers. Although looks a little odd when you look at the bare footprint, once you have a header in there, the alteration is very hard to notice.  Also, if you push a header all the way into place, it is covered up entirely on the bottom side.  This idea of altering the position of holes to aid alignment will be further integrated into the Sparkfun Library for other footprints.  It can help hold any component with 3 or more connection pins.</t>
+  </si>
+  <si>
+    <t>1x6 header</t>
+  </si>
+  <si>
+    <t>X39</t>
+  </si>
+  <si>
+    <t>2213S-10G</t>
+  </si>
+  <si>
+    <t>M05X2PTH</t>
+  </si>
+  <si>
+    <t>AVR_ICSP</t>
+  </si>
+  <si>
+    <t>Header 5x2Standard 10-pin dual row 0.1" header. Commonly used with AVR-ISP. Use with Spark Fun Electronics SKU: PRT-00778</t>
+  </si>
+  <si>
+    <t>2x5 header</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2213S-08G </t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>2X4</t>
+  </si>
+  <si>
+    <t>Y1, Y2</t>
+  </si>
+  <si>
     <t>TXC</t>
   </si>
   <si>
     <t>7M-16.000MEEQ-T</t>
   </si>
   <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>INDUCTOR, American symbol</t>
+    <t>16MHz KX-7</t>
+  </si>
+  <si>
+    <t>CRYSTAL-3.2-2.5</t>
   </si>
   <si>
     <t>16MHz KX-7 10ppm crystal</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>SRN8040-330M</t>
-  </si>
-  <si>
-    <t>FIXED IND 33UH 1.7A 145 MOHM SMD</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>INDP8080X40L</t>
-  </si>
-  <si>
-    <t>Semi-Shielded Wirewound Inductor 145 mOhm Max Nonstandard</t>
-  </si>
-  <si>
-    <t>+/- 20%</t>
-  </si>
-  <si>
-    <t>LED1, LED9, LED10</t>
-  </si>
-  <si>
-    <t>Dialight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5988140107F</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>CHIP-LED0805</t>
-  </si>
-  <si>
-    <t>LED   OSRAM: - CHIPLED LG R971, LG N971, LY N971, LG Q971, LY Q971, LO R971, LY R971 LH N974, LH R974 LS Q976, LO Q976, LY Q976 LO Q996 - Hyper CHIPLED LW Q18S LB Q993, LB Q99A, LB R99A - SideLED LS A670, LO A670, LY A670, LG A670, LP A670 LB A673, LV A673, LT A673, LW A673 LH A674 LY A675 LS A676, LA A676, LO A676, LY A676, LW A676 LS A679, LY A679, LG A679 -  Hyper Micro SIDELED® LS Y876, LA Y876, LO Y876, LY Y876 LT Y87S - SmartLED LW L88C, LW L88S LB L89C, LB L89S, LG L890 LS L89K, LO L89K, LY L89K LS L896, LA L896, LO L896, LY L896 - TOPLED LS T670, LO T670, LY T670, LG T670, LP T670 LSG T670, LSP T670, LSY T670, LOP T670, LYG T670 LG T671, LOG T671, LSG T671 LB T673, LV T673, LT T673, LW T673 LH T674 LS T676, LA T676, LO T676, LY T676, LB T676, LH T676, LSB T676, LW T676 LB T67C, LV T67C, LT T67C, LS T67K, LO T67K, LY T67K, LW E67C LS E67B, LA E67B, LO E67B, LY E67B, LB E67C, LV E67C, LT E67C LW T67C LS T679, LY T679, LG T679 LS T770, LO T770, LY T770, LG T770, LP T770 LB T773, LV T773, LT T773, LW T773 LH T774 LS E675, LA E675, LY E675, LS T675 LS T776, LA T776, LO T776, LY T776, LB T776 LHGB T686 LT T68C, LB T68C - Hyper Mini TOPLED® LB M676 - Mini TOPLED Santana® LG M470 LS M47K, LO M47K, LY M47K    Source: http://www.osram.convergy.de   LUXEON: - LUMILED® LXK2-PW12-R00, LXK2-PW12-S00, LXK2-PW14-U00, LXK2-PW14-V00 LXK2-PM12-R00, LXK2-PM12-S00, LXK2-PM14-U00 LXK2-PE12-Q00, LXK2-PE12-R00, LXK2-PE12-S00, LXK2-PE14-T00, LXK2-PE14-U00 LXK2-PB12-K00, LXK2-PB12-L00, LXK2-PB12-M00, LXK2-PB14-N00, LXK2-PB14-P00, LXK2-PB14-Q00 LXK2-PR12-L00, LXK2-PR12-M00, LXK2-PR14-Q00, LXK2-PR14-R00 LXK2-PD12-Q00, LXK2-PD12-R00, LXK2-PD12-S00 LXK2-PH12-R00, LXK2-PH12-S00 LXK2-PL12-P00, LXK2-PL12-Q00, LXK2-PL12-R00    Source: www.luxeon.com   KINGBRIGHT:   KA-3528ASYC Source: www.kingbright.com</t>
-  </si>
-  <si>
-    <t>YELLOW LED</t>
-  </si>
-  <si>
-    <t>LED2, LED3, LED4, LED5, LED6, LED8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5988110107F </t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>LED7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">598-8170-107F </t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>GREEN LED</t>
-  </si>
-  <si>
-    <t>LOGO1</t>
-  </si>
-  <si>
-    <t>OSHW_LOGO_8MILX0150-NT</t>
-  </si>
-  <si>
-    <t>OSHW_8X150_NOTEXT</t>
-  </si>
-  <si>
-    <t>P1, P2</t>
-  </si>
-  <si>
-    <t>ED1543-ND</t>
-  </si>
-  <si>
-    <t>On Shore</t>
-  </si>
-  <si>
-    <t>302-S101</t>
-  </si>
-  <si>
-    <t>HDR10</t>
-  </si>
-  <si>
-    <t>HDR2X5 IDC</t>
-  </si>
-  <si>
-    <t>CONN HEADER VERT 10POS GOLD</t>
-  </si>
-  <si>
-    <t>10 Positions Header Connector 0.100" (2.54mm) Through Hole Gold</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q5</t>
-  </si>
-  <si>
-    <t>1727-1052-2-ND</t>
-  </si>
-  <si>
-    <t>Nexperia</t>
-  </si>
-  <si>
-    <t>PSMN1R8-40YLC,115</t>
-  </si>
-  <si>
-    <t>PSMN1R8-40YLC</t>
-  </si>
-  <si>
-    <t>SOT669</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 40V 100A LFPAK</t>
-  </si>
-  <si>
-    <t>N-Channel 40V 100A (Tc) 272W (Tc) Surface Mount LFPAK56, Power-SO8</t>
-  </si>
-  <si>
-    <t>N-FET</t>
-  </si>
-  <si>
-    <t>40V 100A 1.8mOhm</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>NCV8402ADDR2GOSTR-ND</t>
-  </si>
-  <si>
-    <t>On Semi</t>
-  </si>
-  <si>
-    <t>NCV8402ADDR2G</t>
-  </si>
-  <si>
-    <t>NCV8402</t>
-  </si>
-  <si>
-    <t>NCV8402AD</t>
-  </si>
-  <si>
-    <t>NCV8402AD-SOIC8</t>
-  </si>
-  <si>
-    <t>IC DVR LOW SIDE 8-SOIC</t>
-  </si>
-  <si>
-    <t>42Vmaz 2A 0.165-Ohm</t>
-  </si>
-  <si>
-    <t>R1, R2, R64, R74, R75, R76</t>
-  </si>
-  <si>
-    <t>RC0402FR-0722RL</t>
-  </si>
-  <si>
-    <t>22R</t>
-  </si>
-  <si>
-    <t>RESISTOR, American symbol</t>
-  </si>
-  <si>
-    <t>22R (22ohm) 62.5mW 1% resistor</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRCW0603470KFKEA </t>
-  </si>
-  <si>
-    <t>470K</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>SMD 1/10watt 470Kohms 1% Thick Film Resistors</t>
-  </si>
-  <si>
-    <t>R4, R7, R8, R10, R14, R15, R19, R20, R23, R24</t>
-  </si>
-  <si>
-    <t>CRM1206-FX-R100ELF</t>
-  </si>
-  <si>
-    <t>0r1</t>
-  </si>
-  <si>
-    <t>R1206</t>
-  </si>
-  <si>
-    <t>0r1 (0.1ohm) .5mW 1% resistor</t>
-  </si>
-  <si>
-    <t>R5, R6, R9, R16, R21, R25</t>
-  </si>
-  <si>
-    <t>YAG1249TR-ND</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710KP</t>
-  </si>
-  <si>
-    <t>10k 1% 0402</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>10k Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>R11, R13</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>R12, R17, R18, R22, R26</t>
-  </si>
-  <si>
-    <t>CR0603J000ELF</t>
-  </si>
-  <si>
-    <t>0r</t>
-  </si>
-  <si>
-    <t>0r (zero ohm) 100mW 5% resistor</t>
-  </si>
-  <si>
-    <t>R27, R28, R32, R36, R38, R39, R77, R78</t>
-  </si>
-  <si>
-    <t>311-2.37KLRTR-ND</t>
-  </si>
-  <si>
-    <t>RC0402FR-072K37L</t>
-  </si>
-  <si>
-    <t>2.37k</t>
-  </si>
-  <si>
-    <t>2k37</t>
-  </si>
-  <si>
-    <t>RES SMD 2.37K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>2.37k Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>+/- 1%</t>
-  </si>
-  <si>
-    <t>2.37k 1% 0402</t>
-  </si>
-  <si>
-    <t>R29, R65, R66, R67, R68</t>
-  </si>
-  <si>
-    <t>CRCW060356R0JNEA</t>
-  </si>
-  <si>
-    <t>56r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTOR, THICK FILM, 56OHM, 100mW, 5% </t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>panasonic</t>
-  </si>
-  <si>
-    <t>erj3geyj332v</t>
-  </si>
-  <si>
-    <t>3.3K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTOR, THICK FILM, 3.3KOHM, 100mW, 5% </t>
-  </si>
-  <si>
-    <t>R31, R37, R73, R79</t>
-  </si>
-  <si>
-    <t>311-4.7KLRTR-ND</t>
-  </si>
-  <si>
-    <t>RC0402FR-074K7L</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>RES SMD 4.7K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>4.7k Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>4.7k 1% 0402</t>
-  </si>
-  <si>
-    <t>R33, R34, R35, RN5</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1001V</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R0603, R0603, R0603, CAY16</t>
-  </si>
-  <si>
-    <t>RESISTOR, American symbol, RESISTOR, American symbol, RESISTOR, American symbol, Array Chip Resistor   Source: RS Component / Phycomp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTOR, THICK FILM, 1KOHM, 100mW, 1% </t>
-  </si>
-  <si>
-    <t>R40, R41, R50, R55, R58, R69</t>
-  </si>
-  <si>
-    <t>RC0603JR-071K8L</t>
-  </si>
-  <si>
-    <t>1.8K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor, Thick Film, 1.8K Ohm, 50V, 5±%, 100ppm, 0603 Case Size </t>
-  </si>
-  <si>
-    <t>R42, R48, R51, R53, R56, R70</t>
-  </si>
-  <si>
-    <t>311-100LRTR-ND</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100RL</t>
-  </si>
-  <si>
-    <t>100R 1% 0402</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>RES SMD 100 OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>100 Ohm ±1% 0.063W, 1/16W Chip Resistor 0402 (1005 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>1/16W</t>
-  </si>
-  <si>
-    <t>R43, R49, R52, R54, R57, R59, R60, R61, R62, R63, R71</t>
-  </si>
-  <si>
-    <t>RC0603FR-07100KL</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>100Kohm 100mW 1% resistor</t>
-  </si>
-  <si>
-    <t>R44, R45, R46, R47</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>10Kohm 100mW 1% resistor</t>
-  </si>
-  <si>
-    <t>R72</t>
-  </si>
-  <si>
-    <t>ERJ2GEJ105X</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>RES 1M OHM 1/10W 5% 0402 SMD</t>
-  </si>
-  <si>
-    <t>RV1, RV2, RV3, RV4, RV5, RV6, RV7, RV8, RV9, RV10, RV11, RV12, RV13, RV14, RV15, RV16, RV17, RV18, RV19, RV20, RV21, RV22, RV23, RV24, RV25, RV26, RV27, RV28, RV29, RV30, RV31, RV32, RV33, RV34</t>
-  </si>
-  <si>
-    <t>311-1516-2-ND</t>
-  </si>
-  <si>
-    <t>VRS0402SR55R101N</t>
-  </si>
-  <si>
-    <t>12V</t>
-  </si>
-  <si>
-    <t>Multi-Layer Varistor</t>
-  </si>
-  <si>
-    <t>VARISTOR 12V 10A 0402</t>
-  </si>
-  <si>
-    <t>5.5Vdc 12Vvar 60pF</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Omron</t>
-  </si>
-  <si>
-    <t>1571610-2</t>
-  </si>
-  <si>
-    <t>31-XX</t>
-  </si>
-  <si>
-    <t>B3F-31XX</t>
-  </si>
-  <si>
-    <t>OMRON SWITCHNow with beefier pads!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITCH, TACTILE, SPST-NO, 50mA, THD </t>
-  </si>
-  <si>
-    <t>TP0, TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19</t>
-  </si>
-  <si>
-    <t>PTR1B1,27TH</t>
-  </si>
-  <si>
-    <t>B1,27TH</t>
-  </si>
-  <si>
-    <t>TEST PIN</t>
-  </si>
-  <si>
-    <t>TP20, TP21, TP22, TP23</t>
-  </si>
-  <si>
-    <t>PTR1B1,27</t>
-  </si>
-  <si>
-    <t>B1,27</t>
-  </si>
-  <si>
-    <t>TP24</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>1X01</t>
-  </si>
-  <si>
-    <t>Pin header 1x1 for 0.1" spacing   With round pins</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>Atmel</t>
-  </si>
-  <si>
-    <t>ATMEGA32U2MU</t>
-  </si>
-  <si>
-    <t>ATMEGA32U2-MUR</t>
-  </si>
-  <si>
-    <t>QFN32TROUND</t>
-  </si>
-  <si>
-    <t>ATMEGA32U2-MUR (IC)</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>ATMEGA2560-16AURTR-ND</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>ATMEGA2560-16AUR</t>
-  </si>
-  <si>
-    <t>ATMEGA2560</t>
-  </si>
-  <si>
-    <t>Atmega2560</t>
-  </si>
-  <si>
-    <t>TSQFP50P1600X1600X120-100L</t>
-  </si>
-  <si>
-    <t>AVR AVR® ATmega Microcontroller IC 8-Bit 16MHz 256KB (128K x 16) FLASH 100-TQFP (14x14)</t>
-  </si>
-  <si>
-    <t>5V 256KB 8KB 16MHz</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>LM22675</t>
-  </si>
-  <si>
-    <t>SOIC127P600X170-9N</t>
-  </si>
-  <si>
-    <t>IC REG BUCK 5V 1A 8SOPWRPAD</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>AD5206BRUZ10-RL7</t>
-  </si>
-  <si>
-    <t>AD5206</t>
-  </si>
-  <si>
-    <t>TSSOP24</t>
-  </si>
-  <si>
-    <t>AD5206 (IC)</t>
-  </si>
-  <si>
-    <t>U5, U6, U7, U8, U9</t>
-  </si>
-  <si>
-    <t>Allegro</t>
-  </si>
-  <si>
-    <t>A4982SETTR-T</t>
-  </si>
-  <si>
-    <t>A4982</t>
-  </si>
-  <si>
-    <t>QFN50P500X500X100_HS-33L</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>ADUM7441ARQZ-RL7</t>
-  </si>
-  <si>
-    <t>ADUM7441</t>
-  </si>
-  <si>
-    <t>QSOP16</t>
-  </si>
-  <si>
-    <t>X1, X3, X5, X9, X27, X28, X29, X30</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>70543-0001</t>
-  </si>
-  <si>
-    <t>C-GRID-02-70543</t>
-  </si>
-  <si>
-    <t>70543-02</t>
-  </si>
-  <si>
-    <t>CONNECTOR   wire to board 2.54 mm (0.100") pitch header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIRE-BOARD CONNECTOR HEADER 2POS, 2.54MM </t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>FCI</t>
-  </si>
-  <si>
-    <t>61729-0010BLF</t>
-  </si>
-  <si>
-    <t>USB B-TH</t>
-  </si>
-  <si>
-    <t>PN61729</t>
-  </si>
-  <si>
-    <t>BERG USB connector</t>
-  </si>
-  <si>
-    <t>USB B-TH connector</t>
-  </si>
-  <si>
-    <t>X4, X6, X7, X8, X10, X14, X15</t>
-  </si>
-  <si>
-    <t>70543-0038</t>
-  </si>
-  <si>
-    <t>C-GRID-04-70543</t>
-  </si>
-  <si>
-    <t>4POL254, 4POL254, 4POL254, 4POL254, 70543-04, 4POL254, 4POL254</t>
-  </si>
-  <si>
-    <t>PHOENIX CONNECTOR, PHOENIX CONNECTOR, PHOENIX CONNECTOR, PHOENIX CONNECTOR, CONNECTOR   wire to board 2.54 mm (0.100") pitch header, PHOENIX CONNECTOR, PHOENIX CONNECTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIRE-BOARD CONNECTOR HEADER 4POS, 2.54MM </t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>395311010</t>
-  </si>
-  <si>
-    <t>MSTBV10</t>
-  </si>
-  <si>
-    <t>PHOENIX</t>
-  </si>
-  <si>
-    <t>CONN HEADER 10POS 5.08MM STR TIN</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>32u2 EXT</t>
-  </si>
-  <si>
-    <t>2X8</t>
-  </si>
-  <si>
-    <t>X17, X18</t>
-  </si>
-  <si>
-    <t>2213S-06G</t>
-  </si>
-  <si>
-    <t>3x2M</t>
-  </si>
-  <si>
-    <t>2X03</t>
-  </si>
-  <si>
-    <t>PIN HEADER</t>
-  </si>
-  <si>
-    <t>2x3 header</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>2211S-05G</t>
-  </si>
-  <si>
-    <t>MX1</t>
-  </si>
-  <si>
-    <t>1X05</t>
-  </si>
-  <si>
-    <t>Header 5Standard 5-pin 0.1" header. Use with straight break away headers (SKU : PRT-00116), right angle break away headers (PRT-00553), swiss pins (PRT-00743), machine pins (PRT-00117), and female headers (PRT-00115). Molex polarized connector foot print use with SKU : PRT-08230 with associated crimp pins and housings.</t>
-  </si>
-  <si>
-    <t>1x5</t>
-  </si>
-  <si>
-    <t>X21, X22, X23, X24, X25, X26</t>
-  </si>
-  <si>
-    <t>70543-0002</t>
-  </si>
-  <si>
-    <t>C-GRID-03-70543</t>
-  </si>
-  <si>
-    <t>70543-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIRE-BOARD CONNECTOR HEADER 3POS, 2.54MM </t>
-  </si>
-  <si>
-    <t>X31</t>
-  </si>
-  <si>
-    <t>MX2</t>
-  </si>
-  <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>MX3</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>39532-1006</t>
-  </si>
-  <si>
-    <t>MSTBA6</t>
-  </si>
-  <si>
-    <t>6 pin fixed terminal block</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>PWM_EXT</t>
-  </si>
-  <si>
-    <t>1X06</t>
-  </si>
-  <si>
-    <t>Header 6Standard 6-pin 0.1" header. Use with straight break away headers (SKU : PRT-00116), right angle break away headers (PRT-00553), swiss pins (PRT-00743), machine pins (PRT-00117), and female headers (PRT-00115). Molex polarized connector foot print use with SKU : PRT-08094 with associated crimp pins and housings. NOTES ON THE VARIANTS LOCK and LOCK_LONGPADS... This footprint was designed to help hold the alignment of a through-hole component (i.e.  6-pin header) while soldering it into place. You may notice that each hole has been shifted either up or down by 0.005 of an inch from it's more standard position (which is a perfectly straight line). This slight alteration caused the pins (the squares in the middle) to touch the edges of the holes.  Because they are alternating, it causes a "brace" to hold the component in place.  0.005 has proven to be the perfect amount of "off-center" position when using our standard breakaway headers. Although looks a little odd when you look at the bare footprint, once you have a header in there, the alteration is very hard to notice.  Also, if you push a header all the way into place, it is covered up entirely on the bottom side.  This idea of altering the position of holes to aid alignment will be further integrated into the Sparkfun Library for other footprints.  It can help hold any component with 3 or more connection pins.</t>
-  </si>
-  <si>
-    <t>1x6 header</t>
-  </si>
-  <si>
-    <t>X39</t>
-  </si>
-  <si>
-    <t>2213S-10G</t>
-  </si>
-  <si>
-    <t>M05X2PTH</t>
-  </si>
-  <si>
-    <t>AVR_ICSP</t>
-  </si>
-  <si>
-    <t>Header 5x2Standard 10-pin dual row 0.1" header. Commonly used with AVR-ISP. Use with Spark Fun Electronics SKU: PRT-00778</t>
-  </si>
-  <si>
-    <t>2x5 header</t>
-  </si>
-  <si>
-    <t>X40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2213S-08G </t>
-  </si>
-  <si>
-    <t>Analog</t>
-  </si>
-  <si>
-    <t>2X4</t>
-  </si>
-  <si>
-    <t>Y1, Y2</t>
-  </si>
-  <si>
-    <t>16MHz KX-7</t>
-  </si>
-  <si>
-    <t>CRYSTAL-3.2-2.5</t>
   </si>
   <si>
     <t>Z1, Z2, Z3</t>
@@ -1873,10 +1888,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -1888,25 +1903,25 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2123,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>62</v>
@@ -2135,7 +2150,7 @@
         <v>64</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>65</v>
@@ -2205,7 +2220,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -2217,13 +2232,13 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>16</v>
@@ -2235,12 +2250,12 @@
         <v>16</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -2252,7 +2267,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -2267,10 +2282,10 @@
         <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>16</v>
@@ -2282,12 +2297,12 @@
         <v>16</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -2299,7 +2314,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -2311,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
@@ -2329,12 +2344,12 @@
         <v>16</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -2343,10 +2358,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -2358,13 +2373,13 @@
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>16</v>
@@ -2376,12 +2391,12 @@
         <v>16</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -2390,10 +2405,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -2405,13 +2420,13 @@
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>16</v>
@@ -2423,12 +2438,12 @@
         <v>16</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -2440,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -2452,13 +2467,13 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>16</v>
@@ -2470,12 +2485,12 @@
         <v>16</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -2484,10 +2499,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -2499,13 +2514,13 @@
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>16</v>
@@ -2517,27 +2532,27 @@
         <v>16</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G17" s="3">
         <v>22</v>
@@ -2546,30 +2561,30 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -2578,10 +2593,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2593,13 +2608,13 @@
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>16</v>
@@ -2611,12 +2626,12 @@
         <v>16</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -2628,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2640,45 +2655,45 @@
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="N19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G20" s="3">
         <v>8</v>
@@ -2687,30 +2702,30 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -2722,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -2734,13 +2749,13 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>16</v>
@@ -2752,12 +2767,12 @@
         <v>16</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -2766,10 +2781,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -2781,13 +2796,13 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>16</v>
@@ -2799,12 +2814,12 @@
         <v>16</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -2813,10 +2828,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -2828,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>16</v>
@@ -2846,12 +2861,12 @@
         <v>16</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -2860,10 +2875,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -2875,10 +2890,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>16</v>
@@ -2893,27 +2908,27 @@
         <v>16</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3">
         <v>32</v>
@@ -2922,30 +2937,30 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -2969,13 +2984,13 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>16</v>
@@ -2992,7 +3007,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -3016,13 +3031,13 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>16</v>
@@ -3039,7 +3054,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -3063,13 +3078,13 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>16</v>
@@ -3086,7 +3101,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -3098,7 +3113,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -3110,13 +3125,13 @@
         <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>16</v>
@@ -3128,12 +3143,12 @@
         <v>16</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -3142,10 +3157,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -3157,13 +3172,13 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>16</v>
@@ -3175,27 +3190,27 @@
         <v>16</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
@@ -3204,30 +3219,30 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -3236,10 +3251,10 @@
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -3251,13 +3266,13 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>16</v>
@@ -3269,12 +3284,12 @@
         <v>16</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -3283,10 +3298,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -3298,13 +3313,13 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>16</v>
@@ -3316,12 +3331,12 @@
         <v>16</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -3333,7 +3348,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -3345,13 +3360,13 @@
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>16</v>
@@ -3363,12 +3378,12 @@
         <v>16</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -3392,10 +3407,10 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>16</v>
@@ -3415,22 +3430,22 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
@@ -3439,42 +3454,42 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="N36" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
@@ -3486,45 +3501,45 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -3533,30 +3548,30 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
@@ -3568,7 +3583,7 @@
         <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3580,13 +3595,13 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>16</v>
@@ -3598,12 +3613,12 @@
         <v>16</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>16</v>
@@ -3612,10 +3627,10 @@
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3627,13 +3642,13 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>16</v>
@@ -3645,12 +3660,12 @@
         <v>16</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -3659,10 +3674,10 @@
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
@@ -3674,13 +3689,13 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>16</v>
@@ -3692,27 +3707,27 @@
         <v>16</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G42" s="3">
         <v>6</v>
@@ -3721,30 +3736,30 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -3768,13 +3783,13 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>16</v>
@@ -3791,7 +3806,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
@@ -3800,10 +3815,10 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -3815,13 +3830,13 @@
         <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>16</v>
@@ -3833,27 +3848,27 @@
         <v>16</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G45" s="3">
         <v>8</v>
@@ -3862,30 +3877,30 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="N45" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>16</v>
@@ -3894,10 +3909,10 @@
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3909,13 +3924,13 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>16</v>
@@ -3927,12 +3942,12 @@
         <v>16</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -3941,10 +3956,10 @@
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3956,13 +3971,13 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>16</v>
@@ -3974,27 +3989,27 @@
         <v>16</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G48" s="3">
         <v>4</v>
@@ -4003,30 +4018,30 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
@@ -4035,10 +4050,10 @@
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -4050,13 +4065,13 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>16</v>
@@ -4068,12 +4083,12 @@
         <v>16</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>16</v>
@@ -4085,7 +4100,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -4097,13 +4112,13 @@
         <v>16</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>16</v>
@@ -4115,27 +4130,27 @@
         <v>16</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G51" s="3">
         <v>6</v>
@@ -4144,30 +4159,30 @@
         <v>16</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>16</v>
@@ -4179,7 +4194,7 @@
         <v>68</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
@@ -4191,13 +4206,13 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>16</v>
@@ -4209,12 +4224,12 @@
         <v>16</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -4223,10 +4238,10 @@
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -4238,13 +4253,13 @@
         <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>16</v>
@@ -4256,12 +4271,12 @@
         <v>16</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>16</v>
@@ -4270,10 +4285,10 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -4285,13 +4300,13 @@
         <v>16</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>16</v>
@@ -4303,27 +4318,27 @@
         <v>16</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G55" s="3">
         <v>34</v>
@@ -4332,30 +4347,30 @@
         <v>16</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="N55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>16</v>
@@ -4364,10 +4379,10 @@
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -4379,13 +4394,13 @@
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>16</v>
@@ -4397,12 +4412,12 @@
         <v>16</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>16</v>
@@ -4426,13 +4441,13 @@
         <v>16</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>16</v>
@@ -4449,7 +4464,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>16</v>
@@ -4473,13 +4488,13 @@
         <v>16</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>16</v>
@@ -4496,7 +4511,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -4520,13 +4535,13 @@
         <v>16</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>16</v>
@@ -4543,7 +4558,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>16</v>
@@ -4552,10 +4567,10 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -4567,10 +4582,10 @@
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>16</v>
@@ -4585,27 +4600,27 @@
         <v>16</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4614,30 +4629,30 @@
         <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="N61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>16</v>
@@ -4649,7 +4664,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>16</v>
@@ -4661,10 +4676,10 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>16</v>
@@ -4679,12 +4694,12 @@
         <v>16</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>16</v>
@@ -4693,10 +4708,10 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -4708,10 +4723,10 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>16</v>
@@ -4726,12 +4741,12 @@
         <v>16</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>16</v>
@@ -4740,10 +4755,10 @@
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
@@ -4755,30 +4770,30 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -4787,10 +4802,10 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>16</v>
@@ -4802,30 +4817,30 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J65" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>16</v>
@@ -4834,10 +4849,10 @@
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>16</v>
@@ -4849,13 +4864,13 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>16</v>
@@ -4867,12 +4882,12 @@
         <v>16</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>16</v>
@@ -4881,10 +4896,10 @@
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -4896,13 +4911,13 @@
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>16</v>
@@ -4914,12 +4929,12 @@
         <v>16</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>16</v>
@@ -4928,10 +4943,10 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>16</v>
@@ -4943,13 +4958,13 @@
         <v>16</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>16</v>
@@ -4961,12 +4976,12 @@
         <v>16</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>16</v>
@@ -4975,10 +4990,10 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
@@ -4990,13 +5005,13 @@
         <v>16</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>16</v>
@@ -5008,12 +5023,12 @@
         <v>16</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>16</v>
@@ -5037,10 +5052,10 @@
         <v>16</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>16</v>
@@ -5060,7 +5075,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -5072,7 +5087,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -5084,13 +5099,13 @@
         <v>16</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>16</v>
@@ -5102,12 +5117,12 @@
         <v>16</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>16</v>
@@ -5119,7 +5134,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>16</v>
@@ -5131,13 +5146,13 @@
         <v>16</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>16</v>
@@ -5149,12 +5164,12 @@
         <v>16</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>16</v>
@@ -5163,10 +5178,10 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -5178,13 +5193,13 @@
         <v>16</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>16</v>
@@ -5196,12 +5211,12 @@
         <v>16</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>16</v>
@@ -5213,7 +5228,7 @@
         <v>16</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
@@ -5225,13 +5240,13 @@
         <v>16</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>16</v>
@@ -5243,12 +5258,12 @@
         <v>16</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
@@ -5260,7 +5275,7 @@
         <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -5272,13 +5287,13 @@
         <v>16</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>16</v>
@@ -5290,12 +5305,12 @@
         <v>16</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>16</v>
@@ -5304,10 +5319,10 @@
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -5319,13 +5334,13 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>16</v>
@@ -5337,12 +5352,12 @@
         <v>16</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>16</v>
@@ -5354,7 +5369,7 @@
         <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -5366,13 +5381,13 @@
         <v>16</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>16</v>
@@ -5384,12 +5399,12 @@
         <v>16</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>16</v>
@@ -5401,7 +5416,7 @@
         <v>16</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -5413,13 +5428,13 @@
         <v>16</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>16</v>
@@ -5431,12 +5446,12 @@
         <v>16</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>16</v>
@@ -5448,7 +5463,7 @@
         <v>16</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -5460,10 +5475,10 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>16</v>
@@ -5483,7 +5498,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>16</v>
@@ -5492,10 +5507,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>455</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>185</v>
+        <v>456</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>16</v>
@@ -5507,10 +5522,10 @@
         <v>16</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>16</v>
@@ -5525,12 +5540,12 @@
         <v>16</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>16</v>
@@ -5539,10 +5554,10 @@
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
@@ -5554,13 +5569,13 @@
         <v>16</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>16</v>
@@ -5572,7 +5587,7 @@
         <v>16</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs/Assembly/BOM-Grouped_RAMBo_1.4a.xlsx
+++ b/Project Outputs/Assembly/BOM-Grouped_RAMBo_1.4a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="467">
   <si>
     <t>Designator</t>
   </si>
@@ -904,7 +904,7 @@
     <t>4.7k 1% 0402</t>
   </si>
   <si>
-    <t>R33, R34, R35, RN5</t>
+    <t>R33, R34, R35</t>
   </si>
   <si>
     <t>Panasonic</t>
@@ -916,12 +916,6 @@
     <t>1K</t>
   </si>
   <si>
-    <t>R0603, R0603, R0603, CAY16</t>
-  </si>
-  <si>
-    <t>RESISTOR, American symbol, RESISTOR, American symbol, RESISTOR, American symbol, Array Chip Resistor   Source: RS Component / Phycomp</t>
-  </si>
-  <si>
     <t xml:space="preserve">RESISTOR, THICK FILM, 1KOHM, 100mW, 1% </t>
   </si>
   <si>
@@ -992,6 +986,24 @@
   </si>
   <si>
     <t>RES 1M OHM 1/10W 5% 0402 SMD</t>
+  </si>
+  <si>
+    <t>RN5</t>
+  </si>
+  <si>
+    <t>CAY16-102J4LF</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>CAY16</t>
+  </si>
+  <si>
+    <t>RES ARRAY 4 RES 1K OHM 1206</t>
+  </si>
+  <si>
+    <t>1k Ohm ±5% 62.5mW Power Per Element Isolated 4 Resistor Network/Array ±200ppm/°C 1206 (3216 Metric), Convex, Long Side Terminals</t>
   </si>
   <si>
     <t>RV1, RV2, RV3, RV4, RV5, RV6, RV7, RV8, RV9, RV10, RV11, RV12, RV13, RV14, RV15, RV16, RV17, RV18, RV19, RV20, RV21, RV22, RV23, RV24, RV25, RV26, RV27, RV28, RV29, RV30, RV31, RV32, RV33, RV34</t>
@@ -1766,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4059,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="G49" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
@@ -4068,27 +4080,27 @@
         <v>299</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>16</v>
@@ -4100,7 +4112,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -4112,7 +4124,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>250</v>
@@ -4130,27 +4142,27 @@
         <v>16</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G51" s="3">
         <v>6</v>
@@ -4159,30 +4171,30 @@
         <v>16</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>163</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>264</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>16</v>
@@ -4194,7 +4206,7 @@
         <v>68</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
@@ -4206,7 +4218,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>250</v>
@@ -4224,12 +4236,12 @@
         <v>16</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -4241,7 +4253,7 @@
         <v>297</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -4271,12 +4283,12 @@
         <v>16</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>16</v>
@@ -4288,7 +4300,7 @@
         <v>297</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -4300,7 +4312,7 @@
         <v>16</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>163</v>
@@ -4318,148 +4330,148 @@
         <v>16</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="L55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="G55" s="3">
-        <v>34</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="G56" s="3">
+        <v>34</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="M56" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="3">
-        <v>20</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4482,7 +4494,7 @@
         <v>16</v>
       </c>
       <c r="G58" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>16</v>
@@ -4494,7 +4506,7 @@
         <v>346</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>16</v>
@@ -4511,37 +4523,37 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>16</v>
@@ -4567,10 +4579,10 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -4582,14 +4594,14 @@
         <v>16</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="2" t="s">
         <v>16</v>
       </c>
@@ -4600,27 +4612,27 @@
         <v>16</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>356</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4629,45 +4641,45 @@
         <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>362</v>
+        <v>16</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4676,22 +4688,22 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="2" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>369</v>
@@ -4708,10 +4720,10 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -4723,57 +4735,57 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="3">
-        <v>5</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>16</v>
@@ -4793,16 +4805,16 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>382</v>
@@ -4811,7 +4823,7 @@
         <v>16</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>16</v>
@@ -4849,28 +4861,28 @@
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="3">
-        <v>8</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="K66" s="2" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>16</v>
@@ -4882,165 +4894,165 @@
         <v>16</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="3">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="L67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="3">
-        <v>7</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="L68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="3">
+        <v>7</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
@@ -5055,11 +5067,11 @@
         <v>411</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="L70" s="2" t="s">
         <v>16</v>
       </c>
@@ -5070,12 +5082,12 @@
         <v>16</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>16</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -5087,13 +5099,13 @@
         <v>16</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>414</v>
+        <v>16</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>16</v>
@@ -5105,7 +5117,7 @@
         <v>416</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>16</v>
@@ -5117,124 +5129,124 @@
         <v>16</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>418</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="L72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="3">
-        <v>6</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="L73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>16</v>
@@ -5243,10 +5255,10 @@
         <v>431</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>16</v>
@@ -5258,12 +5270,12 @@
         <v>16</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
@@ -5275,7 +5287,7 @@
         <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -5287,13 +5299,13 @@
         <v>16</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>16</v>
@@ -5305,12 +5317,12 @@
         <v>16</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>16</v>
@@ -5319,10 +5331,10 @@
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -5334,13 +5346,13 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>16</v>
@@ -5352,7 +5364,7 @@
         <v>16</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5366,7 +5378,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>439</v>
@@ -5384,27 +5396,27 @@
         <v>440</v>
       </c>
       <c r="J77" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>16</v>
@@ -5416,7 +5428,7 @@
         <v>16</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -5428,30 +5440,30 @@
         <v>16</v>
       </c>
       <c r="I78" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="L78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O78" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>16</v>
@@ -5463,7 +5475,7 @@
         <v>16</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -5475,25 +5487,25 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="L79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5507,26 +5519,26 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="3">
-        <v>2</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>16</v>
       </c>
@@ -5540,30 +5552,30 @@
         <v>16</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>459</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>16</v>
@@ -5572,22 +5584,69 @@
         <v>461</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>462</v>
+      <c r="L82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
